--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>934085.8940067816</v>
+        <v>961287.1888203963</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1786423.703430227</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7485440.075890206</v>
+        <v>7746706.064482248</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>325.6778863334424</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.4725933454034</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>49.10882889174339</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>123.0673923170406</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,7 +876,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>140.4156358762049</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>279.2201499974142</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1105,13 +1107,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>137.8773053496826</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>352.7071014503563</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367722</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1342,22 +1344,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.1095699800235</v>
+        <v>165.472491025951</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>323.0858029921742</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>51.585437404294</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,10 +1615,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>132.8999323576906</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>25.66608670843717</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1055716303386</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>24.43802729683371</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>19.53872709080476</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>219.6035253819533</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0606729676881</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>149.5284402831839</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>192.8717243028901</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>181.5314079874484</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V37" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.9733955350591</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>228.0996351671469</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>98.29351313391962</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>153.3573077796842</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3904,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.55792314090662</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>253.4730871880425</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.8666336722028</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>224.5373571634028</v>
+        <v>45.44275720140884</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2160.082153146776</v>
+        <v>2137.056663016763</v>
       </c>
       <c r="C2" t="n">
-        <v>1733.181423160076</v>
+        <v>1710.155933030063</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.888802345077</v>
+        <v>1286.863312215064</v>
       </c>
       <c r="E2" t="n">
-        <v>883.9118624929341</v>
+        <v>860.8863723629212</v>
       </c>
       <c r="F2" t="n">
-        <v>458.7876806823343</v>
+        <v>435.7621905523214</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>54.44861827178296</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M2" t="n">
-        <v>1402.051920498411</v>
+        <v>2176.101402604124</v>
       </c>
       <c r="N2" t="n">
-        <v>2075.853571611725</v>
+        <v>2176.101402604124</v>
       </c>
       <c r="O2" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V2" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="W2" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="X2" t="n">
-        <v>2714.7513187973</v>
+        <v>2962.242297353403</v>
       </c>
       <c r="Y2" t="n">
-        <v>2579.930517438306</v>
+        <v>2556.905027308293</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N3" t="n">
-        <v>515.5329466256644</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="O3" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.41281200711</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="C4" t="n">
-        <v>605.440248886026</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="D4" t="n">
-        <v>442.1234760127967</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="E4" t="n">
-        <v>275.9152701656502</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="F4" t="n">
-        <v>104.0534959402106</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727894</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952052</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.18309045231</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.368885422561</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>3547.849253828195</v>
       </c>
       <c r="S4" t="n">
-        <v>2234.861645684911</v>
+        <v>3377.71420634733</v>
       </c>
       <c r="T4" t="n">
-        <v>1991.522297910811</v>
+        <v>3134.37485857323</v>
       </c>
       <c r="U4" t="n">
-        <v>1711.337849411115</v>
+        <v>2854.190410073534</v>
       </c>
       <c r="V4" t="n">
-        <v>1711.337849411115</v>
+        <v>2572.478942681563</v>
       </c>
       <c r="W4" t="n">
-        <v>1436.485445583628</v>
+        <v>2297.626538854076</v>
       </c>
       <c r="X4" t="n">
-        <v>1193.921549029434</v>
+        <v>2055.062642299882</v>
       </c>
       <c r="Y4" t="n">
-        <v>967.5787807191757</v>
+        <v>1828.719873989624</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.640113505293</v>
+        <v>1383.175898443358</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.739383518593</v>
+        <v>956.2751684566585</v>
       </c>
       <c r="D5" t="n">
-        <v>818.4467627035935</v>
+        <v>532.9825476416588</v>
       </c>
       <c r="E5" t="n">
-        <v>392.4698228514511</v>
+        <v>391.1485720091286</v>
       </c>
       <c r="F5" t="n">
-        <v>371.3860450812554</v>
+        <v>370.0647942389329</v>
       </c>
       <c r="G5" t="n">
-        <v>89.34548952831176</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N5" t="n">
-        <v>1374.82761136252</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>2522.285462586534</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3230.564741744462</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T5" t="n">
-        <v>2501.505342633781</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="U5" t="n">
-        <v>2501.505342633781</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="V5" t="n">
-        <v>2501.505342633781</v>
+        <v>3016.472881311904</v>
       </c>
       <c r="W5" t="n">
-        <v>2501.505342633781</v>
+        <v>2620.081531612251</v>
       </c>
       <c r="X5" t="n">
-        <v>2089.785343801529</v>
+        <v>2208.361532779998</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.488477796823</v>
+        <v>1803.024262734888</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1480.866774040094</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C6" t="n">
-        <v>1363.360870557599</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D6" t="n">
-        <v>1259.520912072884</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E6" t="n">
-        <v>1154.818978345821</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>1061.173148028725</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G6" t="n">
-        <v>967.1193762463289</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K6" t="n">
-        <v>1504.228209576978</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L6" t="n">
-        <v>2048.629262475834</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M6" t="n">
-        <v>2048.629262475834</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="N6" t="n">
-        <v>2048.629262475834</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.629262475834</v>
+        <v>1798.177843437198</v>
       </c>
       <c r="P6" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>2641.106666150403</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>2499.226730448081</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>2314.458534367718</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>2109.485395506984</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1912.964018340201</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>1749.486672106864</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y6" t="n">
-        <v>1609.793783460156</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.3084935837985</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C7" t="n">
-        <v>492.3359304627145</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="D7" t="n">
-        <v>492.3359304627145</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="E7" t="n">
-        <v>492.3359304627145</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="F7" t="n">
-        <v>320.4741562372749</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="G7" t="n">
-        <v>154.217186531507</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T7" t="n">
-        <v>2017.687984891219</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U7" t="n">
-        <v>1737.503536391524</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V7" t="n">
-        <v>1598.233530987804</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W7" t="n">
-        <v>1323.381127160317</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X7" t="n">
-        <v>1080.817230606122</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y7" t="n">
-        <v>854.4744622958642</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1281.370414524072</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C8" t="n">
-        <v>925.1006150792681</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D8" t="n">
-        <v>905.8483983046724</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E8" t="n">
-        <v>479.87145845253</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F8" t="n">
-        <v>458.7876806823343</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>701.0259602492056</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M8" t="n">
-        <v>1374.82761136252</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>2522.285462586534</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3230.564741744462</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U8" t="n">
-        <v>2464.07600418556</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.58658931181</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="W8" t="n">
-        <v>1710.195239612157</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X8" t="n">
-        <v>1702.515644820308</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y8" t="n">
-        <v>1297.178374775198</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>101.3693627944558</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>101.3693627944558</v>
       </c>
       <c r="N9" t="n">
-        <v>1402.051920498411</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="U10" t="n">
-        <v>1774.348637117119</v>
+        <v>1754.952675462561</v>
       </c>
       <c r="V10" t="n">
-        <v>1774.348637117119</v>
+        <v>1754.952675462561</v>
       </c>
       <c r="W10" t="n">
-        <v>1499.496233289632</v>
+        <v>1754.952675462561</v>
       </c>
       <c r="X10" t="n">
-        <v>1256.932336735438</v>
+        <v>1512.388778908366</v>
       </c>
       <c r="Y10" t="n">
-        <v>1137.62974079602</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1182.632999060442</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C11" t="n">
-        <v>1182.632999060442</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D11" t="n">
-        <v>1182.632999060442</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E11" t="n">
-        <v>756.6560592082994</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F11" t="n">
-        <v>756.6560592082994</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G11" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554035</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2502693850971</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N11" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O11" t="n">
-        <v>2075.853571611725</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="P11" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="W11" t="n">
-        <v>2326.039563889495</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X11" t="n">
-        <v>1914.319565057242</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y11" t="n">
-        <v>1508.982295012133</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>1552.117431028563</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2187.823032372085</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>2187.823032372085</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>2187.823032372085</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>904.6419690734826</v>
+        <v>1482.310403913522</v>
       </c>
       <c r="C14" t="n">
-        <v>477.7412390867827</v>
+        <v>1055.409673926822</v>
       </c>
       <c r="D14" t="n">
-        <v>54.44861827178296</v>
+        <v>632.1170531118221</v>
       </c>
       <c r="E14" t="n">
-        <v>54.44861827178296</v>
+        <v>206.1401132596797</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M14" t="n">
-        <v>1592.543782971651</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.543782971651</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="O14" t="n">
-        <v>1592.543782971651</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="P14" t="n">
-        <v>2266.345434084965</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T14" t="n">
-        <v>2501.505342633781</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="U14" t="n">
-        <v>2475.580002524249</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V14" t="n">
-        <v>2118.090587650498</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="W14" t="n">
-        <v>1721.699237950845</v>
+        <v>2719.216037082414</v>
       </c>
       <c r="X14" t="n">
-        <v>1309.979239118592</v>
+        <v>2307.496038250161</v>
       </c>
       <c r="Y14" t="n">
-        <v>904.6419690734826</v>
+        <v>1902.158768205052</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>409.580793597245</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N18" t="n">
-        <v>648.6278400003578</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O18" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5650,16 +5652,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,16 +5700,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W19" t="n">
         <v>1844.556469506584</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5762,40 +5764,40 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1105.451355640851</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>933.4787925197672</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>770.1620196465379</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>603.9538137993915</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>432.0920395739519</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>265.835069868184</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>122.0388013763384</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2039.376393044857</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1764.52398921737</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1521.960092663175</v>
+        <v>810.671283034784</v>
       </c>
       <c r="Y22" t="n">
-        <v>1295.617324352917</v>
+        <v>584.328514724526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -5999,25 +6001,25 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>775.6620294727279</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>603.6894663516439</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2271.4829827684</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1991.298534268705</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.587066876733</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.734663049246</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.170766495052</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.8279981847936</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1416.431999974578</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1880.577476837357</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4157547709034</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
         <v>246.0989818976742</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1064.78153311813</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6543,16 +6545,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6780,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6835,16 +6837,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,22 +6882,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>2039.376393044857</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>2039.376393044857</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="X34" t="n">
         <v>1601.992572952389</v>
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6938,49 +6940,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7026,7 +7028,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.67712750613</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7175,34 +7177,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3178.287479629868</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C40" t="n">
-        <v>3178.287479629868</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D40" t="n">
-        <v>3178.287479629868</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E40" t="n">
-        <v>3178.287479629868</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F40" t="n">
-        <v>3178.287479629868</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>4664.816174310866</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>4664.816174310866</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004482</v>
+        <v>4664.816174310866</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450287</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140029</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1330.618908925625</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C41" t="n">
-        <v>903.7181789389251</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="D41" t="n">
-        <v>480.4255581239254</v>
+        <v>597.161074097912</v>
       </c>
       <c r="E41" t="n">
-        <v>54.44861827178296</v>
+        <v>171.1841342457695</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>171.1841342457695</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>171.1841342457695</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K41" t="n">
-        <v>1090.853728201993</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L41" t="n">
-        <v>1090.853728201993</v>
+        <v>970.2737227554035</v>
       </c>
       <c r="M41" t="n">
-        <v>1764.655379315307</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N41" t="n">
-        <v>2266.345434084965</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O41" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="P41" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V41" t="n">
-        <v>2567.524542094518</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W41" t="n">
-        <v>2567.524542094518</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X41" t="n">
-        <v>2155.804543262265</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y41" t="n">
-        <v>1750.467273217155</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="M42" t="n">
-        <v>54.44861827178296</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="N42" t="n">
-        <v>728.2502693850971</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O42" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1010.558647193979</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C43" t="n">
-        <v>838.5860840728949</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2693111996656</v>
+        <v>177.8611476918628</v>
       </c>
       <c r="E43" t="n">
-        <v>509.0611053525191</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="F43" t="n">
-        <v>337.1993311270795</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G43" t="n">
-        <v>170.9423614213117</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T43" t="n">
-        <v>1944.483684597984</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U43" t="n">
-        <v>1944.483684597984</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V43" t="n">
-        <v>1944.483684597984</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W43" t="n">
-        <v>1669.631280770497</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X43" t="n">
-        <v>1427.067384216303</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y43" t="n">
-        <v>1200.724615906045</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1628.48728745159</v>
+        <v>1348.068047996662</v>
       </c>
       <c r="C44" t="n">
-        <v>1201.58655746489</v>
+        <v>921.1673180099626</v>
       </c>
       <c r="D44" t="n">
-        <v>778.2939366498906</v>
+        <v>497.8746971949629</v>
       </c>
       <c r="E44" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="F44" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G44" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K44" t="n">
-        <v>244.9404807450223</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>918.7421318583365</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="M44" t="n">
-        <v>1592.543782971651</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="N44" t="n">
-        <v>2266.345434084965</v>
+        <v>2886.608587983093</v>
       </c>
       <c r="O44" t="n">
-        <v>2266.345434084965</v>
+        <v>2886.608587983093</v>
       </c>
       <c r="P44" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T44" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.150433230194</v>
+        <v>3338.854445738958</v>
       </c>
       <c r="V44" t="n">
-        <v>2243.150433230194</v>
+        <v>2981.365030865208</v>
       </c>
       <c r="W44" t="n">
-        <v>2243.150433230194</v>
+        <v>2584.973681165555</v>
       </c>
       <c r="X44" t="n">
-        <v>2243.150433230194</v>
+        <v>2173.253682333302</v>
       </c>
       <c r="Y44" t="n">
-        <v>2048.33565174312</v>
+        <v>1767.916412288193</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>644.9335448401225</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>1318.735195953437</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M45" t="n">
-        <v>1318.735195953437</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.3404048017065</v>
+        <v>1055.310311607333</v>
       </c>
       <c r="C46" t="n">
-        <v>802.3404048017065</v>
+        <v>883.3377484862492</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>720.0209756130199</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T46" t="n">
-        <v>1774.348637117119</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="U46" t="n">
-        <v>1494.164188617424</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="V46" t="n">
-        <v>1267.358777341259</v>
+        <v>1989.235349011339</v>
       </c>
       <c r="W46" t="n">
-        <v>992.5063735137721</v>
+        <v>1714.382945183852</v>
       </c>
       <c r="X46" t="n">
-        <v>992.5063735137721</v>
+        <v>1471.819048629657</v>
       </c>
       <c r="Y46" t="n">
-        <v>992.5063735137721</v>
+        <v>1245.476280319399</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>175.165739012064</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>690.3880490742669</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>404.1278315708194</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,10 +8297,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>572.4151401474173</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,10 +8309,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>105.0107851302146</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>404.1278315708194</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8535,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>52.28438515022489</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O9" t="n">
-        <v>488.9136355342238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8690,25 +8692,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>44.49310412327426</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>229.9913845104732</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8769,16 +8771,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>353.1288432587613</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>229.8472855996737</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>358.3024504212947</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O15" t="n">
-        <v>488.9136355342238</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>339.8018586688355</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>298.7446820670146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838786</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>882.2851839951743</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>54.3929872213976</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10191,19 +10193,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10428,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>353.8126856499787</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,10 +10588,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078898</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,10 +10676,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,10 +10825,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>44.49310412327426</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N41" t="n">
-        <v>544.0372539149087</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>677.1461373703553</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>487.5125870168303</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>228.1806234950512</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>893.730544180578</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>571.2430816467296</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.56407765644053</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>287.9730076348031</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23549,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.1052736011146</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23710,7 +23712,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7887810877128</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>247.6658524923784</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>79.23215548632203</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.53473220669966</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20363605725684</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>20.72439720668925</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>79.23215548632197</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>58.60684960120449</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25366,10 +25368,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V37" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.2909134898859</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>12.03862242150598</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>196.5961816067859</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>200.5572129453288</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>59.64236734312303</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8003826660205</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25916,22 +25918,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.298273121509339</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>208.4172636724557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>54.35699555464856</v>
+        <v>233.4515955166426</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>713178.315057006</v>
+        <v>718334.2712716025</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>713178.315057006</v>
+        <v>718334.2712716025</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>713178.315057006</v>
+        <v>718334.2712716025</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472073.160277678</v>
+        <v>556398.3085717832</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472073.1602776779</v>
+        <v>556398.3085717832</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703334.0638804529</v>
+        <v>703334.0638804527</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703334.0638804529</v>
+        <v>703334.0638804528</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703334.0638804529</v>
+        <v>703334.0638804527</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703334.0638804529</v>
+        <v>703334.0638804528</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703334.0638804528</v>
+        <v>703334.0638804529</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>472073.1602776779</v>
+        <v>556398.3085717832</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>472073.160277678</v>
+        <v>556398.3085717832</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
-        <v>334904.5341064189</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="D2" t="n">
         <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
-        <v>216916.905171854</v>
+        <v>255659.2757639539</v>
       </c>
       <c r="F2" t="n">
-        <v>216916.905171854</v>
+        <v>255659.275763954</v>
       </c>
       <c r="G2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="H2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040324</v>
       </c>
       <c r="I2" t="n">
         <v>323167.4818040322</v>
@@ -26344,16 +26346,16 @@
         <v>323167.4818040323</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040325</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="O2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.2757639539</v>
       </c>
       <c r="P2" t="n">
-        <v>216916.905171854</v>
+        <v>255659.2757639539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749752</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146444.4874988407</v>
+        <v>113246.3983795871</v>
       </c>
       <c r="C4" t="n">
-        <v>146444.4874988407</v>
+        <v>113246.3983795872</v>
       </c>
       <c r="D4" t="n">
-        <v>146444.4874988407</v>
+        <v>113246.3983795872</v>
       </c>
       <c r="E4" t="n">
-        <v>29325.43720283133</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="F4" t="n">
-        <v>29325.43720283132</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="J4" t="n">
         <v>43748.40045389556</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>29325.43720283132</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="P4" t="n">
-        <v>29325.43720283133</v>
+        <v>34584.5125417198</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114635.8070426609</v>
+        <v>-167794.1615286871</v>
       </c>
       <c r="C6" t="n">
-        <v>113451.4967210232</v>
+        <v>133388.2401462881</v>
       </c>
       <c r="D6" t="n">
-        <v>113451.4967210231</v>
+        <v>133388.2401462881</v>
       </c>
       <c r="E6" t="n">
-        <v>146210.5180824676</v>
+        <v>166432.4676416906</v>
       </c>
       <c r="F6" t="n">
-        <v>146210.5180824676</v>
+        <v>166432.4676416907</v>
       </c>
       <c r="G6" t="n">
-        <v>37717.89835152098</v>
+        <v>97499.73938008735</v>
       </c>
       <c r="H6" t="n">
-        <v>201669.019161707</v>
+        <v>201669.0191617072</v>
       </c>
       <c r="I6" t="n">
         <v>201669.0191617069</v>
       </c>
       <c r="J6" t="n">
-        <v>23592.09067292725</v>
+        <v>-33476.19111585434</v>
       </c>
       <c r="K6" t="n">
-        <v>201669.019161707</v>
+        <v>201669.0191617071</v>
       </c>
       <c r="L6" t="n">
-        <v>201669.019161707</v>
+        <v>201669.0191617071</v>
       </c>
       <c r="M6" t="n">
         <v>201669.0191617071</v>
       </c>
       <c r="N6" t="n">
-        <v>201669.0191617072</v>
+        <v>201669.0191617069</v>
       </c>
       <c r="O6" t="n">
-        <v>146210.5180824675</v>
+        <v>166432.4676416906</v>
       </c>
       <c r="P6" t="n">
-        <v>146210.5180824676</v>
+        <v>166432.4676416906</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.61778545300348</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>267.8113039992552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>115.4855711169668</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>19.29091348988652</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>281.3015345774161</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>121.0755217890317</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27783,13 +27785,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>19.2909134898868</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>141.0170473683688</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>69.92462123647658</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>105.9697706471319</v>
+        <v>58.6068496012044</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>137.7344761126321</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>368.0031569662214</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>549.9000534331877</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>83.23994392538597</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>368.0031569662214</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>29.76929843599534</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O9" t="n">
-        <v>465.7417458120016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.728503328464916</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>192.4160227002419</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>331.7858150452196</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>192.4160227002419</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>321.0228275868487</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O15" t="n">
-        <v>465.7417458120016</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>310.381899183249</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494326</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>844.8942246391501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.72006782725346</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752669</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>8.728503328464916</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N41" t="n">
-        <v>506.7576310804626</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>192.4160227002418</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>855.4185017479551</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>961287.1888203963</v>
+        <v>960311.985732849</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786423.703430227</v>
+        <v>1786423.703430226</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7746706.064482248</v>
+        <v>7746706.06448225</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>355.2590274387977</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>325.6778863334424</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.0673923170406</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>140.4156358762049</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>123.5645690962205</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>147.9472410193917</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0673923170403</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>29.23804081190485</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>178.6464323367722</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1341,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.472491025951</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>186.5146679205615</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>207.9361665877367</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>111.6459878886687</v>
       </c>
       <c r="D13" t="n">
-        <v>51.585437404294</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>104.3053780922655</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1618,13 +1618,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>132.8999323576906</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>218.008057705788</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>24.43802729683371</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>219.6035253819533</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5284402831839</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>118.6486795727144</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2733,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>134.6750101780024</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3237,22 +3237,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>123.9655676139315</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>181.5314079874484</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3429,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>228.0996351671469</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>97.37896090070777</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>98.29351313391962</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>104.9037564455519</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.4927043761093</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3988,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>253.4730871880425</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4042,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>127.8808333976191</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4149,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>45.44275720140884</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2137.056663016763</v>
+        <v>1637.770615567932</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.155933030063</v>
+        <v>1210.869885581232</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.863312215064</v>
+        <v>852.0223831177999</v>
       </c>
       <c r="E2" t="n">
-        <v>860.8863723629212</v>
+        <v>830.0858473060615</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7621905523214</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>106.7946285993492</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
         <v>106.7946285993492</v>
@@ -4330,52 +4330,52 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>1150.009524135215</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>2039.744271252618</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M2" t="n">
-        <v>2176.101402604124</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N2" t="n">
-        <v>2176.101402604124</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O2" t="n">
-        <v>3021.246052754936</v>
+        <v>2522.285462586535</v>
       </c>
       <c r="P2" t="n">
-        <v>3021.246052754936</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q2" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>3373.962296185655</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U2" t="n">
-        <v>3373.962296185655</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V2" t="n">
-        <v>3373.962296185655</v>
+        <v>2874.676248736824</v>
       </c>
       <c r="W2" t="n">
-        <v>3373.962296185655</v>
+        <v>2874.676248736824</v>
       </c>
       <c r="X2" t="n">
-        <v>2962.242297353403</v>
+        <v>2462.956249904571</v>
       </c>
       <c r="Y2" t="n">
-        <v>2556.905027308293</v>
+        <v>2057.618979859462</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K3" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L3" t="n">
-        <v>71.89775734282044</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="M3" t="n">
-        <v>71.89775734282044</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="N3" t="n">
-        <v>274.9063928733606</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="O3" t="n">
-        <v>1164.387670884832</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="P3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R3" t="n">
         <v>1880.58538792333</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1638.553905277558</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C4" t="n">
-        <v>1638.553905277558</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D4" t="n">
-        <v>1638.553905277558</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="E4" t="n">
-        <v>1638.553905277558</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="F4" t="n">
-        <v>1638.553905277558</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="G4" t="n">
-        <v>1638.553905277558</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="H4" t="n">
-        <v>1514.243407987618</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="I4" t="n">
-        <v>1414.474839727894</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.966167952052</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>1698.493769157889</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>2053.18309045231</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>2444.368885422561</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>2821.860396298596</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>3467.88773690026</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>3547.849253828195</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S4" t="n">
-        <v>3377.71420634733</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T4" t="n">
-        <v>3134.37485857323</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U4" t="n">
-        <v>2854.190410073534</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V4" t="n">
-        <v>2572.478942681563</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W4" t="n">
-        <v>2297.626538854076</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X4" t="n">
-        <v>2055.062642299882</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y4" t="n">
-        <v>1828.719873989624</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1383.175898443358</v>
+        <v>1932.901797120579</v>
       </c>
       <c r="C5" t="n">
-        <v>956.2751684566585</v>
+        <v>1506.00106713388</v>
       </c>
       <c r="D5" t="n">
-        <v>532.9825476416588</v>
+        <v>1082.70844631888</v>
       </c>
       <c r="E5" t="n">
-        <v>391.1485720091286</v>
+        <v>656.7315064667374</v>
       </c>
       <c r="F5" t="n">
-        <v>370.0647942389329</v>
+        <v>231.6073246561376</v>
       </c>
       <c r="G5" t="n">
-        <v>369.7661358687856</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282043</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.140812435722</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.140812435722</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N5" t="n">
-        <v>1677.140812435722</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="O5" t="n">
-        <v>2522.285462586534</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P5" t="n">
-        <v>3230.564741744462</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>3373.962296185654</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U5" t="n">
-        <v>3373.962296185654</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V5" t="n">
-        <v>3016.472881311904</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W5" t="n">
-        <v>2620.081531612251</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X5" t="n">
-        <v>2208.361532779998</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y5" t="n">
-        <v>1803.024262734888</v>
+        <v>1948.709757371705</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>908.6965654257266</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M6" t="n">
-        <v>908.6965654257266</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N6" t="n">
-        <v>908.6965654257266</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="O6" t="n">
-        <v>1798.177843437198</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P6" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q6" t="n">
         <v>1880.58538792333</v>
@@ -4688,10 +4688,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.9768228924842</v>
+        <v>553.8747948028965</v>
       </c>
       <c r="C7" t="n">
-        <v>295.9768228924842</v>
+        <v>381.9022316818125</v>
       </c>
       <c r="D7" t="n">
-        <v>295.9768228924842</v>
+        <v>381.9022316818125</v>
       </c>
       <c r="E7" t="n">
-        <v>295.9768228924842</v>
+        <v>215.694025834666</v>
       </c>
       <c r="F7" t="n">
-        <v>295.9768228924842</v>
+        <v>215.694025834666</v>
       </c>
       <c r="G7" t="n">
-        <v>295.9768228924842</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H7" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
         <v>129.3890855669785</v>
@@ -4749,28 +4749,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1791.797776188157</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U7" t="n">
-        <v>1511.613327688461</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.90186029649</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W7" t="n">
-        <v>955.0494564690027</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X7" t="n">
-        <v>712.4855599148078</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y7" t="n">
-        <v>486.1427916045499</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2177.531292217814</v>
+        <v>1773.49088817741</v>
       </c>
       <c r="C8" t="n">
         <v>1750.630562231114</v>
@@ -4795,61 +4795,61 @@
         <v>476.2368197533718</v>
       </c>
       <c r="G8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>787.4060653183195</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L8" t="n">
-        <v>1677.140812435722</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M8" t="n">
-        <v>1677.140812435722</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="N8" t="n">
-        <v>1677.140812435722</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
-        <v>2522.285462586534</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3230.564741744462</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141021</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3594.887867141021</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U8" t="n">
-        <v>3594.887867141021</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V8" t="n">
-        <v>3594.887867141021</v>
+        <v>3016.472881311905</v>
       </c>
       <c r="W8" t="n">
-        <v>3414.436925386706</v>
+        <v>2620.081531612252</v>
       </c>
       <c r="X8" t="n">
-        <v>3002.716926554453</v>
+        <v>2208.361532779999</v>
       </c>
       <c r="Y8" t="n">
-        <v>2597.379656509343</v>
+        <v>1803.024262734889</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L9" t="n">
-        <v>101.3693627944558</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M9" t="n">
-        <v>101.3693627944558</v>
+        <v>101.3693627944557</v>
       </c>
       <c r="N9" t="n">
         <v>991.1041099118586</v>
@@ -4925,10 +4925,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4959,7 +4959,7 @@
         <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
         <v>129.3890855669785</v>
@@ -4989,22 +4989,22 @@
         <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2035.137123962257</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T10" t="n">
-        <v>2035.137123962257</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="U10" t="n">
-        <v>1754.952675462561</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="V10" t="n">
-        <v>1754.952675462561</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>1754.952675462561</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>1512.388778908366</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
         <v>1345.244848579123</v>
@@ -5026,58 +5026,58 @@
         <v>1111.397533470776</v>
       </c>
       <c r="E11" t="n">
-        <v>685.4205936186339</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="F11" t="n">
-        <v>260.2964118080341</v>
+        <v>686.2733516601766</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282043</v>
+        <v>281.9342892496252</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>80.53897563800069</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>970.2737227554035</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M11" t="n">
-        <v>1860.008469872806</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N11" t="n">
-        <v>2749.743216990209</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="O11" t="n">
-        <v>3594.887867141021</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P11" t="n">
-        <v>3594.887867141021</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q11" t="n">
-        <v>3594.887867141021</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W11" t="n">
         <v>3198.496517441368</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
         <v>662.38268391116</v>
       </c>
       <c r="L12" t="n">
-        <v>662.38268391116</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="M12" t="n">
-        <v>1552.117431028563</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="N12" t="n">
-        <v>1880.58538792333</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="O12" t="n">
         <v>1880.58538792333</v>
@@ -5162,10 +5162,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>295.9768228924842</v>
+        <v>1095.880041886043</v>
       </c>
       <c r="C13" t="n">
-        <v>124.0042597714002</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D13" t="n">
-        <v>71.89775734282043</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E13" t="n">
-        <v>71.89775734282043</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F13" t="n">
-        <v>71.89775734282043</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>71.89775734282043</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>71.89775734282043</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
         <v>129.3890855669785</v>
@@ -5229,22 +5229,22 @@
         <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1754.952675462561</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1754.952675462561</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1754.952675462561</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>1512.388778908366</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>1286.046010598108</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1482.310403913522</v>
+        <v>2153.857908527044</v>
       </c>
       <c r="C14" t="n">
-        <v>1055.409673926822</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D14" t="n">
-        <v>632.1170531118221</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E14" t="n">
-        <v>206.1401132596797</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F14" t="n">
-        <v>71.89775734282043</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282043</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>434.5012161597159</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.009524135215</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.009524135215</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M14" t="n">
-        <v>1150.009524135215</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="N14" t="n">
-        <v>1467.822123446195</v>
+        <v>2741.101998695029</v>
       </c>
       <c r="O14" t="n">
-        <v>2312.966773597007</v>
+        <v>3586.246648845841</v>
       </c>
       <c r="P14" t="n">
-        <v>3021.246052754935</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3373.962296185654</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3115.607386782067</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V14" t="n">
-        <v>3115.607386782067</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W14" t="n">
-        <v>2719.216037082414</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="X14" t="n">
-        <v>2307.496038250161</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="Y14" t="n">
-        <v>1902.158768205052</v>
+        <v>2573.706272818574</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M15" t="n">
-        <v>961.6325044602232</v>
+        <v>101.3693627944557</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.367251577626</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O15" t="n">
         <v>1880.58538792333</v>
@@ -5399,10 +5399,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5433,7 +5433,7 @@
         <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
         <v>129.3890855669785</v>
@@ -5460,22 +5460,22 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.310784755949</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="X16" t="n">
         <v>1571.587616889381</v>
@@ -5515,34 +5515,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>409.580793597245</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1125.089101572744</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572744</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991802</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
@@ -5600,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1869.241345563992</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5764,25 +5764,25 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5837,19 +5837,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5952,10 +5952,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>810.671283034784</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.328514724526</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -5998,28 +5998,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,28 +6305,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>700.2342829360799</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>700.2342829360799</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>700.2342829360799</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>700.2342829360799</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O27" t="n">
-        <v>700.2342829360799</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1416.431999974578</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>1880.577476837357</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1064.78153311813</v>
+        <v>795.2884438199453</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>795.2884438199453</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>631.971670946716</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>631.971670946716</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.78153311813</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.78153311813</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,16 +6545,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>850.1944999357522</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6782,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1582.26891798564</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2110.459382441553</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1867.120034667453</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1867.120034667453</v>
       </c>
       <c r="V34" t="n">
-        <v>1785.357631525569</v>
+        <v>1585.408567275482</v>
       </c>
       <c r="W34" t="n">
-        <v>1785.357631525569</v>
+        <v>1310.556163447995</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>1067.9922668938</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>841.6494985835419</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690842</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7025,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7265,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402535</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281451</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408221</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810561</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>4945.000622810561</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U40" t="n">
-        <v>4664.816174310866</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V40" t="n">
-        <v>4664.816174310866</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W40" t="n">
-        <v>4664.816174310866</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.412502424859</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>1020.453694912912</v>
       </c>
       <c r="C41" t="n">
-        <v>1020.453694912912</v>
+        <v>593.5529649262119</v>
       </c>
       <c r="D41" t="n">
-        <v>597.161074097912</v>
+        <v>170.2603441112121</v>
       </c>
       <c r="E41" t="n">
-        <v>171.1841342457695</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F41" t="n">
-        <v>171.1841342457695</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G41" t="n">
-        <v>171.1841342457695</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>80.53897563800069</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>970.2737227554035</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.008469872806</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N41" t="n">
-        <v>2749.743216990209</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O41" t="n">
-        <v>3594.887867141021</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P41" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
         <v>3490.520573014162</v>
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M42" t="n">
-        <v>991.1041099118586</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N42" t="n">
-        <v>991.1041099118586</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="O42" t="n">
-        <v>1880.58538792333</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P42" t="n">
         <v>1880.58538792333</v>
@@ -7532,10 +7532,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.1504836861761</v>
+        <v>756.4898314602763</v>
       </c>
       <c r="C43" t="n">
-        <v>341.1779205650921</v>
+        <v>584.5172683391922</v>
       </c>
       <c r="D43" t="n">
-        <v>177.8611476918628</v>
+        <v>421.2004954659629</v>
       </c>
       <c r="E43" t="n">
-        <v>71.89775734282043</v>
+        <v>254.9922896188165</v>
       </c>
       <c r="F43" t="n">
-        <v>71.89775734282043</v>
+        <v>254.9922896188165</v>
       </c>
       <c r="G43" t="n">
-        <v>71.89775734282043</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H43" t="n">
-        <v>71.89775734282043</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I43" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
         <v>129.3890855669785</v>
@@ -7599,22 +7599,22 @@
         <v>2252.310784755949</v>
       </c>
       <c r="T43" t="n">
-        <v>2008.971436981848</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U43" t="n">
-        <v>1728.786988482153</v>
+        <v>1972.126336256253</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.075521090182</v>
+        <v>1690.414868864282</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.223117262695</v>
+        <v>1415.562465036795</v>
       </c>
       <c r="X43" t="n">
-        <v>929.6592207084997</v>
+        <v>1172.9985684826</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.3164523982417</v>
+        <v>946.655800172342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1348.068047996662</v>
+        <v>2071.060608333227</v>
       </c>
       <c r="C44" t="n">
-        <v>921.1673180099626</v>
+        <v>1644.159878346527</v>
       </c>
       <c r="D44" t="n">
-        <v>497.8746971949629</v>
+        <v>1220.867257531528</v>
       </c>
       <c r="E44" t="n">
-        <v>71.89775734282043</v>
+        <v>794.8903176793854</v>
       </c>
       <c r="F44" t="n">
-        <v>71.89775734282043</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="G44" t="n">
-        <v>71.89775734282043</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
         <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1996.873840865691</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M44" t="n">
-        <v>1996.873840865691</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N44" t="n">
-        <v>2886.608587983093</v>
+        <v>2293.657737486026</v>
       </c>
       <c r="O44" t="n">
-        <v>2886.608587983093</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P44" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3594.887867141021</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U44" t="n">
-        <v>3338.854445738958</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V44" t="n">
-        <v>2981.365030865208</v>
+        <v>3016.472881311905</v>
       </c>
       <c r="W44" t="n">
-        <v>2584.973681165555</v>
+        <v>2620.081531612252</v>
       </c>
       <c r="X44" t="n">
-        <v>2173.253682333302</v>
+        <v>2490.908972624758</v>
       </c>
       <c r="Y44" t="n">
-        <v>1767.916412288193</v>
+        <v>2490.908972624758</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>79.34440030473226</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>351.0418895843234</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>941.5268161526629</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>941.5268161526629</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M45" t="n">
-        <v>941.5268161526629</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N45" t="n">
-        <v>941.5268161526629</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O45" t="n">
-        <v>1416.439911060551</v>
+        <v>961.3790353542921</v>
       </c>
       <c r="P45" t="n">
-        <v>1416.439911060551</v>
+        <v>1677.57675239279</v>
       </c>
       <c r="Q45" t="n">
         <v>1880.58538792333</v>
@@ -7769,10 +7769,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1055.310311607333</v>
+        <v>745.2570734097197</v>
       </c>
       <c r="C46" t="n">
-        <v>883.3377484862492</v>
+        <v>573.2845102886357</v>
       </c>
       <c r="D46" t="n">
-        <v>720.0209756130199</v>
+        <v>409.9677374154064</v>
       </c>
       <c r="E46" t="n">
-        <v>553.8127697658734</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>381.9509955404339</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>215.694025834666</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
         <v>129.3890855669785</v>
@@ -7830,28 +7830,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.137123962257</v>
+        <v>2241.078026705392</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.137123962257</v>
+        <v>1960.893578205696</v>
       </c>
       <c r="V46" t="n">
-        <v>1989.235349011339</v>
+        <v>1679.182110813725</v>
       </c>
       <c r="W46" t="n">
-        <v>1714.382945183852</v>
+        <v>1404.329706986238</v>
       </c>
       <c r="X46" t="n">
-        <v>1471.819048629657</v>
+        <v>1161.765810432043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1245.476280319399</v>
+        <v>935.4230421217853</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178784</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>175.165739012064</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,13 +7996,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>660.3197305479116</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>745.2028786174529</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>937.0340092178782</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,13 +8230,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>432.1170575644005</v>
       </c>
       <c r="P5" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>404.1278315708194</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8300,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O6" t="n">
-        <v>921.6378271075471</v>
+        <v>482.5733105306339</v>
       </c>
       <c r="P6" t="n">
-        <v>105.0107851302146</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178782</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>182.3161482577561</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
@@ -8473,10 +8473,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>404.1278315708194</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,13 +8537,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>52.28438515022489</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>52.86607894832319</v>
       </c>
       <c r="N9" t="n">
-        <v>920.0649949987969</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O9" t="n">
         <v>921.6378271075471</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49310412327426</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178782</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846871</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>936.0015896197013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>313.3732849564178</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,16 +8774,16 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>353.1288432587613</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>408.4283502568324</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>358.3024504212947</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>46.3038651386963</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975833</v>
+        <v>45.34421737063447</v>
       </c>
       <c r="N15" t="n">
-        <v>920.0649949987969</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>52.685158758287</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>339.8018586688355</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9412,13 +9412,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>276.0147300838786</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9485,7 +9485,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,13 +9494,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9953,10 +9953,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9968,7 +9968,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
@@ -9977,7 +9977,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>54.3929872213976</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10193,19 +10193,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10430,7 +10430,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10442,13 +10442,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P33" t="n">
-        <v>353.8126856499787</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>229.9501690078898</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10673,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.685833629606</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8632399032651</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49310412327426</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>937.0340092178782</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>936.1532296846871</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197013</v>
+        <v>432.0057210428224</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11138,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11147,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>677.1461373703553</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11302,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>893.730544180578</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>936.0015896197013</v>
+        <v>293.7578715550603</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>502.8820865988767</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>213.7810038658843</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>86.95352815296886</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>58.60684960120449</v>
       </c>
       <c r="D13" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.3263445945674</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>287.9730076348031</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23548,19 +23548,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>247.6658524923784</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050431</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,10 +24141,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.53473220669966</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>20.72439720668925</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>51.49447691047081</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>89.40433044915301</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.46812939212504</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>58.60684960120449</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.03862242150598</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>324.3382095529132</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25645,7 +25645,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>196.5961816067859</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>59.64236734312303</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>82.10169563260088</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25918,10 +25918,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.298273121509339</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>279.7219654463111</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>233.4515955166426</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556398.3085717832</v>
+        <v>556398.3085717834</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703334.0638804527</v>
+        <v>703334.0638804529</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703334.0638804527</v>
+        <v>703334.0638804528</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703334.0638804528</v>
+        <v>703334.0638804529</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703334.0638804529</v>
+        <v>703334.0638804528</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703334.0638804528</v>
+        <v>703334.0638804529</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334904.5341064188</v>
+        <v>334904.5341064187</v>
       </c>
       <c r="C2" t="n">
-        <v>334904.5341064188</v>
+        <v>334904.5341064187</v>
       </c>
       <c r="D2" t="n">
-        <v>334904.5341064188</v>
+        <v>334904.5341064187</v>
       </c>
       <c r="E2" t="n">
         <v>255659.2757639539</v>
@@ -26328,34 +26328,34 @@
         <v>255659.275763954</v>
       </c>
       <c r="G2" t="n">
+        <v>323167.4818040322</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323167.4818040321</v>
+      </c>
+      <c r="I2" t="n">
         <v>323167.4818040323</v>
       </c>
-      <c r="H2" t="n">
-        <v>323167.4818040324</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>323167.4818040322</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323167.4818040323</v>
       </c>
       <c r="K2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="L2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040324</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.4818040324</v>
       </c>
       <c r="O2" t="n">
         <v>255659.2757639539</v>
       </c>
       <c r="P2" t="n">
-        <v>255659.2757639539</v>
+        <v>255659.275763954</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749752</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>113246.3983795871</v>
       </c>
       <c r="C4" t="n">
-        <v>113246.3983795872</v>
+        <v>113246.3983795871</v>
       </c>
       <c r="D4" t="n">
-        <v>113246.3983795872</v>
+        <v>113246.3983795871</v>
       </c>
       <c r="E4" t="n">
         <v>34584.51254171981</v>
@@ -26432,10 +26432,10 @@
         <v>34584.51254171981</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389557</v>
@@ -26459,7 +26459,7 @@
         <v>34584.51254171981</v>
       </c>
       <c r="P4" t="n">
-        <v>34584.5125417198</v>
+        <v>34584.51254171981</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-167794.1615286871</v>
       </c>
       <c r="C6" t="n">
-        <v>133388.2401462881</v>
+        <v>133388.240146288</v>
       </c>
       <c r="D6" t="n">
-        <v>133388.2401462881</v>
+        <v>133388.240146288</v>
       </c>
       <c r="E6" t="n">
-        <v>166432.4676416906</v>
+        <v>166087.9230402016</v>
       </c>
       <c r="F6" t="n">
-        <v>166432.4676416907</v>
+        <v>166087.9230402017</v>
       </c>
       <c r="G6" t="n">
-        <v>97499.73938008735</v>
+        <v>97448.70871790296</v>
       </c>
       <c r="H6" t="n">
-        <v>201669.0191617072</v>
+        <v>201617.9884995226</v>
       </c>
       <c r="I6" t="n">
-        <v>201669.0191617069</v>
+        <v>201617.9884995227</v>
       </c>
       <c r="J6" t="n">
-        <v>-33476.19111585434</v>
+        <v>-33527.2217780387</v>
       </c>
       <c r="K6" t="n">
-        <v>201669.0191617071</v>
+        <v>201617.9884995227</v>
       </c>
       <c r="L6" t="n">
-        <v>201669.0191617071</v>
+        <v>201617.9884995228</v>
       </c>
       <c r="M6" t="n">
-        <v>201669.0191617071</v>
+        <v>201617.9884995227</v>
       </c>
       <c r="N6" t="n">
-        <v>201669.0191617069</v>
+        <v>201617.9884995228</v>
       </c>
       <c r="O6" t="n">
-        <v>166432.4676416906</v>
+        <v>166087.9230402016</v>
       </c>
       <c r="P6" t="n">
-        <v>166432.4676416906</v>
+        <v>166087.9230402017</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>63.80066716805197</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>74.61778545300348</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27554,10 +27554,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>19.29091348988652</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>47.1854451728328</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>281.3015345774161</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>276.7311026902253</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>40.31706800555327</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27791,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>19.2909134898868</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>386.4118398367099</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>213.7810038658843</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.6068496012044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>137.7344761126321</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>622.7443687376804</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>723.4320374126243</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="P5" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>368.0031569662214</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O6" t="n">
-        <v>898.4659373853249</v>
+        <v>459.4014208084117</v>
       </c>
       <c r="P6" t="n">
-        <v>83.23994392538597</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.0365254233101</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
@@ -35193,10 +35193,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>368.0031569662214</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>29.76929843599534</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>29.76929843599521</v>
       </c>
       <c r="N9" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O9" t="n">
         <v>898.4659373853249</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>8.728503328464916</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>275.9823256003937</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>331.7858150452196</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N14" t="n">
-        <v>321.0228275868487</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>8.728503328465001</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852553</v>
+        <v>22.24743685830649</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>29.51326903606477</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>310.381899183249</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>238.7351072494326</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
@@ -36697,7 +36697,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>30.72006782725346</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P33" t="n">
-        <v>332.04184444515</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>191.6381265752669</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.3737911969831</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810429</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>8.728503328464916</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852553</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>855.4185017479551</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>898.7219667852553</v>
+        <v>256.4782487206143</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>479.7101968766545</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
